--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,57 +525,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.675310456295398</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H2">
-        <v>0.675310456295398</v>
+        <v>2.173961</v>
       </c>
       <c r="I2">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505297</v>
       </c>
       <c r="J2">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505298</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0836019577456496</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N2">
-        <v>0.0836019577456496</v>
+        <v>0.265479</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9052313210944106</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9052313210944106</v>
       </c>
       <c r="Q2">
-        <v>0.05645727623240322</v>
+        <v>0.06412677692433333</v>
       </c>
       <c r="R2">
-        <v>0.05645727623240322</v>
+        <v>0.577140992319</v>
       </c>
       <c r="S2">
-        <v>0.2154502135649537</v>
+        <v>0.1621516081605489</v>
       </c>
       <c r="T2">
-        <v>0.2154502135649537</v>
+        <v>0.1621516081605489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -584,55 +584,179 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.7246536666666668</v>
+      </c>
+      <c r="H3">
+        <v>2.173961</v>
+      </c>
+      <c r="I3">
+        <v>0.1791272621505297</v>
+      </c>
+      <c r="J3">
+        <v>0.1791272621505298</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.009264333333333334</v>
+      </c>
+      <c r="N3">
+        <v>0.027793</v>
+      </c>
+      <c r="O3">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P3">
+        <v>0.09476867890558936</v>
+      </c>
+      <c r="Q3">
+        <v>0.006713433119222224</v>
+      </c>
+      <c r="R3">
+        <v>0.06042089807300001</v>
+      </c>
+      <c r="S3">
+        <v>0.01697565398998089</v>
+      </c>
+      <c r="T3">
+        <v>0.01697565398998089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.45910489248218</v>
-      </c>
-      <c r="H3">
-        <v>2.45910489248218</v>
-      </c>
-      <c r="I3">
-        <v>0.7845497864350464</v>
-      </c>
-      <c r="J3">
-        <v>0.7845497864350464</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.0836019577456496</v>
-      </c>
-      <c r="N3">
-        <v>0.0836019577456496</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.2055859833134154</v>
-      </c>
-      <c r="R3">
-        <v>0.2055859833134154</v>
-      </c>
-      <c r="S3">
-        <v>0.7845497864350464</v>
-      </c>
-      <c r="T3">
-        <v>0.7845497864350464</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.320814666666667</v>
+      </c>
+      <c r="H4">
+        <v>9.962444</v>
+      </c>
+      <c r="I4">
+        <v>0.8208727378494701</v>
+      </c>
+      <c r="J4">
+        <v>0.8208727378494702</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.08849299999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.265479</v>
+      </c>
+      <c r="O4">
+        <v>0.9052313210944106</v>
+      </c>
+      <c r="P4">
+        <v>0.9052313210944106</v>
+      </c>
+      <c r="Q4">
+        <v>0.2938688522973333</v>
+      </c>
+      <c r="R4">
+        <v>2.644819670676</v>
+      </c>
+      <c r="S4">
+        <v>0.7430797129338617</v>
+      </c>
+      <c r="T4">
+        <v>0.7430797129338618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.320814666666667</v>
+      </c>
+      <c r="H5">
+        <v>9.962444</v>
+      </c>
+      <c r="I5">
+        <v>0.8208727378494701</v>
+      </c>
+      <c r="J5">
+        <v>0.8208727378494702</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.009264333333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.027793</v>
+      </c>
+      <c r="O5">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P5">
+        <v>0.09476867890558936</v>
+      </c>
+      <c r="Q5">
+        <v>0.03076513401022223</v>
+      </c>
+      <c r="R5">
+        <v>0.276886206092</v>
+      </c>
+      <c r="S5">
+        <v>0.07779302491560848</v>
+      </c>
+      <c r="T5">
+        <v>0.07779302491560848</v>
       </c>
     </row>
   </sheetData>
